--- a/HS_TT_summary_23Oct20.xlsx
+++ b/HS_TT_summary_23Oct20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ofs/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adityaharish/Documents/Documents/Subjects/CompSci/G11/Computer-Science-IA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A928E00-D2B7-BD42-B33C-1F345B7200B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803FB2B8-D80D-144E-B288-2088ECED37B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="460" windowWidth="50320" windowHeight="24720"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main Period 23 Oct 2020" sheetId="1" r:id="rId1"/>
@@ -3826,7 +3826,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -4324,10 +4324,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI197"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -18891,9 +18893,6 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C12:C13"/>
@@ -18911,6 +18910,9 @@
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="40" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -18922,10 +18924,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>

--- a/HS_TT_summary_23Oct20.xlsx
+++ b/HS_TT_summary_23Oct20.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adityaharish/Documents/Documents/Subjects/CompSci/G11/Computer-Science-IA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803FB2B8-D80D-144E-B288-2088ECED37B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83948F5-1454-9345-9F71-D09945FCE4EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3908,10 +3908,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3921,9 +3924,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4350,7 +4350,7 @@
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="9"/>
@@ -4359,7 +4359,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="10" t="s">
         <v>2</v>
       </c>
       <c r="L2" s="9"/>
@@ -4367,7 +4367,7 @@
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="R2" s="9"/>
@@ -4375,7 +4375,7 @@
       <c r="T2" s="9"/>
       <c r="U2" s="9"/>
       <c r="V2" s="9"/>
-      <c r="W2" s="8" t="s">
+      <c r="W2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="X2" s="9"/>
@@ -4384,7 +4384,7 @@
       <c r="AA2" s="9"/>
       <c r="AB2" s="9"/>
       <c r="AC2" s="9"/>
-      <c r="AD2" s="8" t="s">
+      <c r="AD2" s="10" t="s">
         <v>5</v>
       </c>
       <c r="AE2" s="9"/>
@@ -4495,13 +4495,13 @@
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="13">
         <f>COUNTA(D4:AI4)</f>
         <v>19</v>
       </c>
@@ -4577,9 +4577,9 @@
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="4" t="s">
         <v>22</v>
       </c>
@@ -4652,13 +4652,13 @@
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="10">
         <f>COUNTA(D6:AI6)</f>
         <v>16</v>
       </c>
@@ -4797,13 +4797,13 @@
       <c r="AI7" s="2"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="13">
         <f>COUNTA(D8:AI8)</f>
         <v>17</v>
       </c>
@@ -4875,9 +4875,9 @@
       <c r="AI8" s="4"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="4" t="s">
         <v>41</v>
       </c>
@@ -4946,13 +4946,13 @@
       <c r="AI9" s="4"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="10">
         <f>COUNTA(D10:AI10)</f>
         <v>15</v>
       </c>
@@ -5087,13 +5087,13 @@
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="13">
         <f>COUNTA(D12:AI12)</f>
         <v>20</v>
       </c>
@@ -5171,9 +5171,9 @@
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="4" t="s">
         <v>84</v>
       </c>
@@ -5248,13 +5248,13 @@
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="10">
         <f>COUNTA(D14:AI14)</f>
         <v>18</v>
       </c>
@@ -5401,13 +5401,13 @@
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="13">
         <f>COUNTA(D16:AI16)</f>
         <v>19</v>
       </c>
@@ -5483,9 +5483,9 @@
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
       <c r="D17" s="4" t="s">
         <v>116</v>
       </c>
@@ -5558,13 +5558,13 @@
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="10">
         <f>COUNTA(D18:AI18)</f>
         <v>19</v>
       </c>
@@ -5715,13 +5715,13 @@
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="13">
         <f>COUNTA(D20:AI20)</f>
         <v>16</v>
       </c>
@@ -5791,9 +5791,9 @@
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
       <c r="D21" s="4" t="s">
         <v>141</v>
       </c>
@@ -5860,13 +5860,13 @@
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="10">
         <f>COUNTA(D22:AI22)</f>
         <v>16</v>
       </c>
@@ -6005,13 +6005,13 @@
       </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="13">
         <f>COUNTA(D24:AI24)</f>
         <v>16</v>
       </c>
@@ -6081,9 +6081,9 @@
       <c r="AI24" s="4"/>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
@@ -6150,13 +6150,13 @@
       <c r="AI25" s="4"/>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="10">
         <f>COUNTA(D26:AI26)</f>
         <v>17</v>
       </c>
@@ -6299,13 +6299,13 @@
       <c r="AI27" s="2"/>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="C28" s="12">
+      <c r="C28" s="13">
         <f>COUNTA(D28:AI28)</f>
         <v>18</v>
       </c>
@@ -6379,9 +6379,9 @@
       <c r="AI28" s="4"/>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
       <c r="D29" s="4" t="s">
         <v>189</v>
       </c>
@@ -6452,13 +6452,13 @@
       <c r="AI29" s="4"/>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="10">
         <f>COUNTA(D30:AI30)</f>
         <v>19</v>
       </c>
@@ -6609,13 +6609,13 @@
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="C32" s="12">
+      <c r="C32" s="13">
         <f>COUNTA(D32:AI32)</f>
         <v>20</v>
       </c>
@@ -6693,9 +6693,9 @@
       </c>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
       <c r="D33" s="4" t="s">
         <v>218</v>
       </c>
@@ -6770,13 +6770,13 @@
       </c>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="10">
         <f>COUNTA(D34:AI34)</f>
         <v>19</v>
       </c>
@@ -6927,13 +6927,13 @@
       </c>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="13">
         <f>COUNTA(D36:AI36)</f>
         <v>14</v>
       </c>
@@ -6999,9 +6999,9 @@
       </c>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4" t="s">
         <v>245</v>
@@ -7064,13 +7064,13 @@
       </c>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="10">
         <f>COUNTA(D38:AI38)</f>
         <v>19</v>
       </c>
@@ -7221,13 +7221,13 @@
       </c>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="13">
         <f>COUNTA(D40:AI40)</f>
         <v>19</v>
       </c>
@@ -7303,9 +7303,9 @@
       </c>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
       <c r="D41" s="4" t="s">
         <v>269</v>
       </c>
@@ -7378,13 +7378,13 @@
       </c>
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="10">
         <f>COUNTA(D42:AI42)</f>
         <v>18</v>
       </c>
@@ -7531,13 +7531,13 @@
       <c r="AI43" s="2"/>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="C44" s="12">
+      <c r="C44" s="13">
         <f>COUNTA(D44:AI44)</f>
         <v>19</v>
       </c>
@@ -7613,9 +7613,9 @@
       </c>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4" t="s">
         <v>298</v>
@@ -7688,13 +7688,13 @@
       </c>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="C46" s="8">
+      <c r="C46" s="10">
         <f>COUNTA(D46:AI46)</f>
         <v>18</v>
       </c>
@@ -7841,13 +7841,13 @@
       </c>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="13">
         <f>COUNTA(D48:AI48)</f>
         <v>19</v>
       </c>
@@ -7923,9 +7923,9 @@
       </c>
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
       <c r="D49" s="4" t="s">
         <v>328</v>
       </c>
@@ -7998,13 +7998,13 @@
       </c>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="C50" s="8">
+      <c r="C50" s="10">
         <f>COUNTA(D50:AI50)</f>
         <v>19</v>
       </c>
@@ -8155,13 +8155,13 @@
       </c>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="C52" s="12">
+      <c r="C52" s="13">
         <f>COUNTA(D52:AI52)</f>
         <v>15</v>
       </c>
@@ -8229,9 +8229,9 @@
       </c>
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4" t="s">
         <v>351</v>
@@ -8296,13 +8296,13 @@
       </c>
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="C54" s="8">
+      <c r="C54" s="10">
         <f>COUNTA(D54:AI54)</f>
         <v>19</v>
       </c>
@@ -8453,13 +8453,13 @@
       </c>
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="C56" s="12">
+      <c r="C56" s="13">
         <f>COUNTA(D56:AI56)</f>
         <v>20</v>
       </c>
@@ -8537,9 +8537,9 @@
       <c r="AI56" s="4"/>
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
       <c r="D57" s="4" t="s">
         <v>382</v>
       </c>
@@ -8614,13 +8614,13 @@
       <c r="AI57" s="4"/>
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="C58" s="8">
+      <c r="C58" s="10">
         <f>COUNTA(D58:AI58)</f>
         <v>20</v>
       </c>
@@ -8775,13 +8775,13 @@
       </c>
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="C60" s="12">
+      <c r="C60" s="13">
         <f>COUNTA(D60:AI60)</f>
         <v>21</v>
       </c>
@@ -8861,9 +8861,9 @@
       <c r="AI60" s="4"/>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
       <c r="D61" s="4" t="s">
         <v>413</v>
       </c>
@@ -8940,13 +8940,13 @@
       <c r="AI61" s="4"/>
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="C62" s="8">
+      <c r="C62" s="10">
         <f>COUNTA(D62:AI62)</f>
         <v>8</v>
       </c>
@@ -9053,13 +9053,13 @@
       <c r="AI63" s="2"/>
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="C64" s="12">
+      <c r="C64" s="13">
         <f>COUNTA(D64:AI64)</f>
         <v>20</v>
       </c>
@@ -9137,9 +9137,9 @@
       <c r="AI64" s="4"/>
     </row>
     <row r="65" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A65" s="11"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
+      <c r="A65" s="12"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4" t="s">
@@ -9214,13 +9214,13 @@
       <c r="AI65" s="4"/>
     </row>
     <row r="66" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A66" s="13" t="s">
+      <c r="A66" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="C66" s="8">
+      <c r="C66" s="10">
         <f>COUNTA(D66:AI66)</f>
         <v>19</v>
       </c>
@@ -9371,13 +9371,13 @@
       </c>
     </row>
     <row r="68" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="C68" s="12">
+      <c r="C68" s="13">
         <f>COUNTA(D68:AI68)</f>
         <v>20</v>
       </c>
@@ -9455,9 +9455,9 @@
       <c r="AI68" s="4"/>
     </row>
     <row r="69" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A69" s="11"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
+      <c r="A69" s="12"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4" t="s">
@@ -9532,13 +9532,13 @@
       <c r="AI69" s="4"/>
     </row>
     <row r="70" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A70" s="13" t="s">
+      <c r="A70" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="B70" s="13" t="s">
+      <c r="B70" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="C70" s="8">
+      <c r="C70" s="10">
         <f>COUNTA(D70:AI70)</f>
         <v>8</v>
       </c>
@@ -9645,13 +9645,13 @@
       <c r="AI71" s="2"/>
     </row>
     <row r="72" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="11" t="s">
         <v>481</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="C72" s="12">
+      <c r="C72" s="13">
         <f>COUNTA(D72:AI72)</f>
         <v>20</v>
       </c>
@@ -9729,9 +9729,9 @@
       </c>
     </row>
     <row r="73" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A73" s="11"/>
-      <c r="B73" s="11"/>
-      <c r="C73" s="11"/>
+      <c r="A73" s="12"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
       <c r="D73" s="4" t="s">
         <v>490</v>
       </c>
@@ -9806,13 +9806,13 @@
       </c>
     </row>
     <row r="74" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A74" s="13" t="s">
+      <c r="A74" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="B74" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="C74" s="8">
+      <c r="C74" s="10">
         <f>COUNTA(D74:AI74)</f>
         <v>19</v>
       </c>
@@ -9963,13 +9963,13 @@
       </c>
     </row>
     <row r="76" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="11" t="s">
         <v>509</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="11" t="s">
         <v>510</v>
       </c>
-      <c r="C76" s="12">
+      <c r="C76" s="13">
         <f>COUNTA(D76:AI76)</f>
         <v>15</v>
       </c>
@@ -10037,9 +10037,9 @@
       </c>
     </row>
     <row r="77" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A77" s="11"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
+      <c r="A77" s="12"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4" t="s">
         <v>516</v>
@@ -10104,13 +10104,13 @@
       </c>
     </row>
     <row r="78" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A78" s="13" t="s">
+      <c r="A78" s="8" t="s">
         <v>520</v>
       </c>
-      <c r="B78" s="13" t="s">
+      <c r="B78" s="8" t="s">
         <v>521</v>
       </c>
-      <c r="C78" s="8">
+      <c r="C78" s="10">
         <f>COUNTA(D78:AI78)</f>
         <v>14</v>
       </c>
@@ -10241,13 +10241,13 @@
       </c>
     </row>
     <row r="80" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="11" t="s">
         <v>534</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="11" t="s">
         <v>535</v>
       </c>
-      <c r="C80" s="12">
+      <c r="C80" s="13">
         <f>COUNTA(D80:AI80)</f>
         <v>16</v>
       </c>
@@ -10317,9 +10317,9 @@
       </c>
     </row>
     <row r="81" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A81" s="11"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="11"/>
+      <c r="A81" s="12"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4" t="s">
         <v>542</v>
@@ -10386,13 +10386,13 @@
       </c>
     </row>
     <row r="82" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A82" s="13" t="s">
+      <c r="A82" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="B82" s="13" t="s">
+      <c r="B82" s="8" t="s">
         <v>548</v>
       </c>
-      <c r="C82" s="8">
+      <c r="C82" s="10">
         <f>COUNTA(D82:AI82)</f>
         <v>15</v>
       </c>
@@ -10527,13 +10527,13 @@
       </c>
     </row>
     <row r="84" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A84" s="10" t="s">
+      <c r="A84" s="11" t="s">
         <v>557</v>
       </c>
-      <c r="B84" s="10" t="s">
+      <c r="B84" s="11" t="s">
         <v>558</v>
       </c>
-      <c r="C84" s="12">
+      <c r="C84" s="13">
         <f>COUNTA(D84:AI84)</f>
         <v>20</v>
       </c>
@@ -10611,9 +10611,9 @@
       </c>
     </row>
     <row r="85" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A85" s="11"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
+      <c r="A85" s="12"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="12"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4" t="s">
         <v>567</v>
@@ -10688,13 +10688,13 @@
       </c>
     </row>
     <row r="86" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A86" s="13" t="s">
+      <c r="A86" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="B86" s="13" t="s">
+      <c r="B86" s="8" t="s">
         <v>574</v>
       </c>
-      <c r="C86" s="8">
+      <c r="C86" s="10">
         <f>COUNTA(D86:AI86)</f>
         <v>14</v>
       </c>
@@ -10825,13 +10825,13 @@
       </c>
     </row>
     <row r="88" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A88" s="10" t="s">
+      <c r="A88" s="11" t="s">
         <v>585</v>
       </c>
-      <c r="B88" s="10" t="s">
+      <c r="B88" s="11" t="s">
         <v>586</v>
       </c>
-      <c r="C88" s="12">
+      <c r="C88" s="13">
         <f>COUNTA(D88:AI88)</f>
         <v>6</v>
       </c>
@@ -10881,9 +10881,9 @@
       <c r="AI88" s="4"/>
     </row>
     <row r="89" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A89" s="11"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="11"/>
+      <c r="A89" s="12"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="12"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
@@ -10930,13 +10930,13 @@
       <c r="AI89" s="4"/>
     </row>
     <row r="90" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A90" s="13" t="s">
+      <c r="A90" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="B90" s="13" t="s">
+      <c r="B90" s="8" t="s">
         <v>592</v>
       </c>
-      <c r="C90" s="8">
+      <c r="C90" s="10">
         <f>COUNTA(D90:AI90)</f>
         <v>20</v>
       </c>
@@ -11091,13 +11091,13 @@
       </c>
     </row>
     <row r="92" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A92" s="10" t="s">
+      <c r="A92" s="11" t="s">
         <v>607</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B92" s="11" t="s">
         <v>608</v>
       </c>
-      <c r="C92" s="12">
+      <c r="C92" s="13">
         <f>COUNTA(D92:AI92)</f>
         <v>18</v>
       </c>
@@ -11171,9 +11171,9 @@
       </c>
     </row>
     <row r="93" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A93" s="11"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="11"/>
+      <c r="A93" s="12"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="12"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4" t="s">
         <v>617</v>
@@ -11244,13 +11244,13 @@
       </c>
     </row>
     <row r="94" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A94" s="13" t="s">
+      <c r="A94" s="8" t="s">
         <v>624</v>
       </c>
-      <c r="B94" s="13" t="s">
+      <c r="B94" s="8" t="s">
         <v>625</v>
       </c>
-      <c r="C94" s="8">
+      <c r="C94" s="10">
         <f>COUNTA(D94:AI94)</f>
         <v>19</v>
       </c>
@@ -11401,13 +11401,13 @@
       </c>
     </row>
     <row r="96" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A96" s="10" t="s">
+      <c r="A96" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="B96" s="10" t="s">
+      <c r="B96" s="11" t="s">
         <v>640</v>
       </c>
-      <c r="C96" s="12">
+      <c r="C96" s="13">
         <f>COUNTA(D96:AI96)</f>
         <v>19</v>
       </c>
@@ -11483,9 +11483,9 @@
       </c>
     </row>
     <row r="97" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A97" s="11"/>
-      <c r="B97" s="11"/>
-      <c r="C97" s="11"/>
+      <c r="A97" s="12"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="12"/>
       <c r="D97" s="4" t="s">
         <v>648</v>
       </c>
@@ -11558,13 +11558,13 @@
       </c>
     </row>
     <row r="98" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A98" s="13" t="s">
+      <c r="A98" s="8" t="s">
         <v>654</v>
       </c>
-      <c r="B98" s="13" t="s">
+      <c r="B98" s="8" t="s">
         <v>655</v>
       </c>
-      <c r="C98" s="8">
+      <c r="C98" s="10">
         <f>COUNTA(D98:AI98)</f>
         <v>20</v>
       </c>
@@ -11719,13 +11719,13 @@
       </c>
     </row>
     <row r="100" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A100" s="10" t="s">
+      <c r="A100" s="11" t="s">
         <v>667</v>
       </c>
-      <c r="B100" s="10" t="s">
+      <c r="B100" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="C100" s="12">
+      <c r="C100" s="13">
         <f>COUNTA(D100:AI100)</f>
         <v>2</v>
       </c>
@@ -11767,9 +11767,9 @@
       <c r="AI100" s="4"/>
     </row>
     <row r="101" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A101" s="11"/>
-      <c r="B101" s="11"/>
-      <c r="C101" s="11"/>
+      <c r="A101" s="12"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="12"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
@@ -11808,13 +11808,13 @@
       <c r="AI101" s="4"/>
     </row>
     <row r="102" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A102" s="13" t="s">
+      <c r="A102" s="8" t="s">
         <v>673</v>
       </c>
-      <c r="B102" s="13" t="s">
+      <c r="B102" s="8" t="s">
         <v>674</v>
       </c>
-      <c r="C102" s="8">
+      <c r="C102" s="10">
         <f>COUNTA(D102:AI102)</f>
         <v>8</v>
       </c>
@@ -11921,13 +11921,13 @@
       <c r="AI103" s="2"/>
     </row>
     <row r="104" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A104" s="10" t="s">
+      <c r="A104" s="11" t="s">
         <v>683</v>
       </c>
-      <c r="B104" s="10" t="s">
+      <c r="B104" s="11" t="s">
         <v>684</v>
       </c>
-      <c r="C104" s="12">
+      <c r="C104" s="13">
         <f>COUNTA(D104:AI104)</f>
         <v>14</v>
       </c>
@@ -11993,9 +11993,9 @@
       <c r="AI104" s="4"/>
     </row>
     <row r="105" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A105" s="11"/>
-      <c r="B105" s="11"/>
-      <c r="C105" s="11"/>
+      <c r="A105" s="12"/>
+      <c r="B105" s="12"/>
+      <c r="C105" s="12"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
@@ -12058,13 +12058,13 @@
       <c r="AI105" s="4"/>
     </row>
     <row r="106" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A106" s="13" t="s">
+      <c r="A106" s="8" t="s">
         <v>696</v>
       </c>
-      <c r="B106" s="13" t="s">
+      <c r="B106" s="8" t="s">
         <v>697</v>
       </c>
-      <c r="C106" s="8">
+      <c r="C106" s="10">
         <f>COUNTA(D106:AI106)</f>
         <v>6</v>
       </c>
@@ -12163,13 +12163,13 @@
       <c r="AI107" s="2"/>
     </row>
     <row r="108" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A108" s="10" t="s">
+      <c r="A108" s="11" t="s">
         <v>702</v>
       </c>
-      <c r="B108" s="10" t="s">
+      <c r="B108" s="11" t="s">
         <v>703</v>
       </c>
-      <c r="C108" s="12">
+      <c r="C108" s="13">
         <f>COUNTA(D108:AI108)</f>
         <v>18</v>
       </c>
@@ -12243,9 +12243,9 @@
       </c>
     </row>
     <row r="109" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A109" s="11"/>
-      <c r="B109" s="11"/>
-      <c r="C109" s="11"/>
+      <c r="A109" s="12"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="12"/>
       <c r="D109" s="4" t="s">
         <v>712</v>
       </c>
@@ -12316,13 +12316,13 @@
       </c>
     </row>
     <row r="110" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A110" s="13" t="s">
+      <c r="A110" s="8" t="s">
         <v>719</v>
       </c>
-      <c r="B110" s="13" t="s">
+      <c r="B110" s="8" t="s">
         <v>720</v>
       </c>
-      <c r="C110" s="8">
+      <c r="C110" s="10">
         <f>COUNTA(D110:AI110)</f>
         <v>19</v>
       </c>
@@ -12473,13 +12473,13 @@
       <c r="AI111" s="2"/>
     </row>
     <row r="112" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A112" s="10" t="s">
+      <c r="A112" s="11" t="s">
         <v>731</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="B112" s="11" t="s">
         <v>732</v>
       </c>
-      <c r="C112" s="12">
+      <c r="C112" s="13">
         <f>COUNTA(D112:AI112)</f>
         <v>13</v>
       </c>
@@ -12543,9 +12543,9 @@
       <c r="AI112" s="4"/>
     </row>
     <row r="113" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A113" s="11"/>
-      <c r="B113" s="11"/>
-      <c r="C113" s="11"/>
+      <c r="A113" s="12"/>
+      <c r="B113" s="12"/>
+      <c r="C113" s="12"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
@@ -12606,13 +12606,13 @@
       <c r="AI113" s="4"/>
     </row>
     <row r="114" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A114" s="13" t="s">
+      <c r="A114" s="8" t="s">
         <v>742</v>
       </c>
-      <c r="B114" s="13" t="s">
+      <c r="B114" s="8" t="s">
         <v>743</v>
       </c>
-      <c r="C114" s="8">
+      <c r="C114" s="10">
         <f>COUNTA(D114:AI114)</f>
         <v>3</v>
       </c>
@@ -12699,13 +12699,13 @@
       </c>
     </row>
     <row r="116" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A116" s="10" t="s">
+      <c r="A116" s="11" t="s">
         <v>746</v>
       </c>
-      <c r="B116" s="10" t="s">
+      <c r="B116" s="11" t="s">
         <v>747</v>
       </c>
-      <c r="C116" s="12">
+      <c r="C116" s="13">
         <f>COUNTA(D116:AI116)</f>
         <v>4</v>
       </c>
@@ -12751,9 +12751,9 @@
       <c r="AI116" s="4"/>
     </row>
     <row r="117" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A117" s="11"/>
-      <c r="B117" s="11"/>
-      <c r="C117" s="11"/>
+      <c r="A117" s="12"/>
+      <c r="B117" s="12"/>
+      <c r="C117" s="12"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
@@ -12796,13 +12796,13 @@
       <c r="AI117" s="4"/>
     </row>
     <row r="118" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A118" s="13" t="s">
+      <c r="A118" s="8" t="s">
         <v>752</v>
       </c>
-      <c r="B118" s="13" t="s">
+      <c r="B118" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="C118" s="8">
+      <c r="C118" s="10">
         <f>COUNTA(D118:AI118)</f>
         <v>6</v>
       </c>
@@ -12901,13 +12901,13 @@
       </c>
     </row>
     <row r="120" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A120" s="10" t="s">
+      <c r="A120" s="11" t="s">
         <v>757</v>
       </c>
-      <c r="B120" s="10" t="s">
+      <c r="B120" s="11" t="s">
         <v>758</v>
       </c>
-      <c r="C120" s="12">
+      <c r="C120" s="13">
         <f>COUNTA(D120:AI120)</f>
         <v>19</v>
       </c>
@@ -12983,9 +12983,9 @@
       </c>
     </row>
     <row r="121" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A121" s="11"/>
-      <c r="B121" s="11"/>
-      <c r="C121" s="11"/>
+      <c r="A121" s="12"/>
+      <c r="B121" s="12"/>
+      <c r="C121" s="12"/>
       <c r="D121" s="4" t="s">
         <v>765</v>
       </c>
@@ -13058,13 +13058,13 @@
       </c>
     </row>
     <row r="122" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A122" s="13" t="s">
+      <c r="A122" s="8" t="s">
         <v>769</v>
       </c>
-      <c r="B122" s="13" t="s">
+      <c r="B122" s="8" t="s">
         <v>770</v>
       </c>
-      <c r="C122" s="8">
+      <c r="C122" s="10">
         <f>COUNTA(D122:AI122)</f>
         <v>18</v>
       </c>
@@ -13211,13 +13211,13 @@
       </c>
     </row>
     <row r="124" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A124" s="10" t="s">
+      <c r="A124" s="11" t="s">
         <v>787</v>
       </c>
-      <c r="B124" s="10" t="s">
+      <c r="B124" s="11" t="s">
         <v>788</v>
       </c>
-      <c r="C124" s="12">
+      <c r="C124" s="13">
         <f>COUNTA(D124:AI124)</f>
         <v>20</v>
       </c>
@@ -13295,9 +13295,9 @@
       <c r="AI124" s="4"/>
     </row>
     <row r="125" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A125" s="11"/>
-      <c r="B125" s="11"/>
-      <c r="C125" s="11"/>
+      <c r="A125" s="12"/>
+      <c r="B125" s="12"/>
+      <c r="C125" s="12"/>
       <c r="D125" s="4" t="s">
         <v>796</v>
       </c>
@@ -13372,13 +13372,13 @@
       <c r="AI125" s="4"/>
     </row>
     <row r="126" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A126" s="13" t="s">
+      <c r="A126" s="8" t="s">
         <v>802</v>
       </c>
-      <c r="B126" s="13" t="s">
+      <c r="B126" s="8" t="s">
         <v>803</v>
       </c>
-      <c r="C126" s="8">
+      <c r="C126" s="10">
         <f>COUNTA(D126:AI126)</f>
         <v>16</v>
       </c>
@@ -13517,13 +13517,13 @@
       <c r="AI127" s="2"/>
     </row>
     <row r="128" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A128" s="10" t="s">
+      <c r="A128" s="11" t="s">
         <v>816</v>
       </c>
-      <c r="B128" s="10" t="s">
+      <c r="B128" s="11" t="s">
         <v>817</v>
       </c>
-      <c r="C128" s="12">
+      <c r="C128" s="13">
         <f>COUNTA(D128:AI128)</f>
         <v>19</v>
       </c>
@@ -13599,9 +13599,9 @@
       </c>
     </row>
     <row r="129" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A129" s="11"/>
-      <c r="B129" s="11"/>
-      <c r="C129" s="11"/>
+      <c r="A129" s="12"/>
+      <c r="B129" s="12"/>
+      <c r="C129" s="12"/>
       <c r="D129" s="4" t="s">
         <v>825</v>
       </c>
@@ -13674,13 +13674,13 @@
       </c>
     </row>
     <row r="130" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A130" s="13" t="s">
+      <c r="A130" s="8" t="s">
         <v>830</v>
       </c>
-      <c r="B130" s="13" t="s">
+      <c r="B130" s="8" t="s">
         <v>831</v>
       </c>
-      <c r="C130" s="8">
+      <c r="C130" s="10">
         <f>COUNTA(D130:AI130)</f>
         <v>15</v>
       </c>
@@ -13815,13 +13815,13 @@
       </c>
     </row>
     <row r="132" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A132" s="10" t="s">
+      <c r="A132" s="11" t="s">
         <v>844</v>
       </c>
-      <c r="B132" s="10" t="s">
+      <c r="B132" s="11" t="s">
         <v>845</v>
       </c>
-      <c r="C132" s="12">
+      <c r="C132" s="13">
         <f>COUNTA(D132:AI132)</f>
         <v>19</v>
       </c>
@@ -13897,9 +13897,9 @@
       <c r="AI132" s="4"/>
     </row>
     <row r="133" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A133" s="11"/>
-      <c r="B133" s="11"/>
-      <c r="C133" s="11"/>
+      <c r="A133" s="12"/>
+      <c r="B133" s="12"/>
+      <c r="C133" s="12"/>
       <c r="D133" s="4" t="s">
         <v>177</v>
       </c>
@@ -13972,13 +13972,13 @@
       <c r="AI133" s="4"/>
     </row>
     <row r="134" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A134" s="13" t="s">
+      <c r="A134" s="8" t="s">
         <v>858</v>
       </c>
-      <c r="B134" s="13" t="s">
+      <c r="B134" s="8" t="s">
         <v>859</v>
       </c>
-      <c r="C134" s="8">
+      <c r="C134" s="10">
         <f>COUNTA(D134:AI134)</f>
         <v>12</v>
       </c>
@@ -14101,13 +14101,13 @@
       <c r="AI135" s="2"/>
     </row>
     <row r="136" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A136" s="10" t="s">
+      <c r="A136" s="11" t="s">
         <v>866</v>
       </c>
-      <c r="B136" s="10" t="s">
+      <c r="B136" s="11" t="s">
         <v>867</v>
       </c>
-      <c r="C136" s="12">
+      <c r="C136" s="13">
         <f>COUNTA(D136:AI136)</f>
         <v>15</v>
       </c>
@@ -14175,9 +14175,9 @@
       </c>
     </row>
     <row r="137" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A137" s="11"/>
-      <c r="B137" s="11"/>
-      <c r="C137" s="11"/>
+      <c r="A137" s="12"/>
+      <c r="B137" s="12"/>
+      <c r="C137" s="12"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4" t="s">
         <v>873</v>
@@ -14242,13 +14242,13 @@
       </c>
     </row>
     <row r="138" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A138" s="13" t="s">
+      <c r="A138" s="8" t="s">
         <v>876</v>
       </c>
-      <c r="B138" s="13" t="s">
+      <c r="B138" s="8" t="s">
         <v>877</v>
       </c>
-      <c r="C138" s="8">
+      <c r="C138" s="10">
         <f>COUNTA(D138:AI138)</f>
         <v>20</v>
       </c>
@@ -14403,13 +14403,13 @@
       </c>
     </row>
     <row r="140" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A140" s="10" t="s">
+      <c r="A140" s="11" t="s">
         <v>889</v>
       </c>
-      <c r="B140" s="10" t="s">
+      <c r="B140" s="11" t="s">
         <v>890</v>
       </c>
-      <c r="C140" s="12">
+      <c r="C140" s="13">
         <f>COUNTA(D140:AI140)</f>
         <v>16</v>
       </c>
@@ -14479,9 +14479,9 @@
       <c r="AI140" s="4"/>
     </row>
     <row r="141" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A141" s="11"/>
-      <c r="B141" s="11"/>
-      <c r="C141" s="11"/>
+      <c r="A141" s="12"/>
+      <c r="B141" s="12"/>
+      <c r="C141" s="12"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
@@ -14548,13 +14548,13 @@
       <c r="AI141" s="4"/>
     </row>
     <row r="142" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A142" s="13" t="s">
+      <c r="A142" s="8" t="s">
         <v>899</v>
       </c>
-      <c r="B142" s="13" t="s">
+      <c r="B142" s="8" t="s">
         <v>900</v>
       </c>
-      <c r="C142" s="8">
+      <c r="C142" s="10">
         <f>COUNTA(D142:AI142)</f>
         <v>19</v>
       </c>
@@ -14705,13 +14705,13 @@
       <c r="AI143" s="2"/>
     </row>
     <row r="144" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A144" s="10" t="s">
+      <c r="A144" s="11" t="s">
         <v>912</v>
       </c>
-      <c r="B144" s="10" t="s">
+      <c r="B144" s="11" t="s">
         <v>913</v>
       </c>
-      <c r="C144" s="12">
+      <c r="C144" s="13">
         <f>COUNTA(D144:AI144)</f>
         <v>12</v>
       </c>
@@ -14773,9 +14773,9 @@
       <c r="AI144" s="4"/>
     </row>
     <row r="145" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A145" s="11"/>
-      <c r="B145" s="11"/>
-      <c r="C145" s="11"/>
+      <c r="A145" s="12"/>
+      <c r="B145" s="12"/>
+      <c r="C145" s="12"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
       <c r="F145" s="4" t="s">
@@ -14834,13 +14834,13 @@
       <c r="AI145" s="4"/>
     </row>
     <row r="146" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A146" s="13" t="s">
+      <c r="A146" s="8" t="s">
         <v>921</v>
       </c>
-      <c r="B146" s="13" t="s">
+      <c r="B146" s="8" t="s">
         <v>922</v>
       </c>
-      <c r="C146" s="8">
+      <c r="C146" s="10">
         <f>COUNTA(D146:AI146)</f>
         <v>3</v>
       </c>
@@ -14927,13 +14927,13 @@
       <c r="AI147" s="2"/>
     </row>
     <row r="148" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A148" s="10" t="s">
+      <c r="A148" s="11" t="s">
         <v>925</v>
       </c>
-      <c r="B148" s="10" t="s">
+      <c r="B148" s="11" t="s">
         <v>926</v>
       </c>
-      <c r="C148" s="12">
+      <c r="C148" s="13">
         <f>COUNTA(D148:AI148)</f>
         <v>19</v>
       </c>
@@ -15009,9 +15009,9 @@
       </c>
     </row>
     <row r="149" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A149" s="11"/>
-      <c r="B149" s="11"/>
-      <c r="C149" s="11"/>
+      <c r="A149" s="12"/>
+      <c r="B149" s="12"/>
+      <c r="C149" s="12"/>
       <c r="D149" s="4" t="s">
         <v>222</v>
       </c>
@@ -15084,13 +15084,13 @@
       </c>
     </row>
     <row r="150" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A150" s="13" t="s">
+      <c r="A150" s="8" t="s">
         <v>936</v>
       </c>
-      <c r="B150" s="13" t="s">
+      <c r="B150" s="8" t="s">
         <v>937</v>
       </c>
-      <c r="C150" s="8">
+      <c r="C150" s="10">
         <f>COUNTA(D150:AI150)</f>
         <v>21</v>
       </c>
@@ -15249,13 +15249,13 @@
       </c>
     </row>
     <row r="152" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A152" s="10" t="s">
+      <c r="A152" s="11" t="s">
         <v>952</v>
       </c>
-      <c r="B152" s="10" t="s">
+      <c r="B152" s="11" t="s">
         <v>953</v>
       </c>
-      <c r="C152" s="12">
+      <c r="C152" s="13">
         <f>COUNTA(D152:AI152)</f>
         <v>19</v>
       </c>
@@ -15331,9 +15331,9 @@
       </c>
     </row>
     <row r="153" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A153" s="11"/>
-      <c r="B153" s="11"/>
-      <c r="C153" s="11"/>
+      <c r="A153" s="12"/>
+      <c r="B153" s="12"/>
+      <c r="C153" s="12"/>
       <c r="D153" s="4" t="s">
         <v>961</v>
       </c>
@@ -15406,13 +15406,13 @@
       </c>
     </row>
     <row r="154" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A154" s="13" t="s">
+      <c r="A154" s="8" t="s">
         <v>967</v>
       </c>
-      <c r="B154" s="13" t="s">
+      <c r="B154" s="8" t="s">
         <v>968</v>
       </c>
-      <c r="C154" s="8">
+      <c r="C154" s="10">
         <f>COUNTA(D154:AI154)</f>
         <v>19</v>
       </c>
@@ -15563,13 +15563,13 @@
       </c>
     </row>
     <row r="156" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A156" s="10" t="s">
+      <c r="A156" s="11" t="s">
         <v>981</v>
       </c>
-      <c r="B156" s="10" t="s">
+      <c r="B156" s="11" t="s">
         <v>982</v>
       </c>
-      <c r="C156" s="12">
+      <c r="C156" s="13">
         <f>COUNTA(D156:AI156)</f>
         <v>19</v>
       </c>
@@ -15645,9 +15645,9 @@
       <c r="AI156" s="4"/>
     </row>
     <row r="157" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A157" s="11"/>
-      <c r="B157" s="11"/>
-      <c r="C157" s="11"/>
+      <c r="A157" s="12"/>
+      <c r="B157" s="12"/>
+      <c r="C157" s="12"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
@@ -15720,13 +15720,13 @@
       <c r="AI157" s="4"/>
     </row>
     <row r="158" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A158" s="13" t="s">
+      <c r="A158" s="8" t="s">
         <v>991</v>
       </c>
-      <c r="B158" s="13" t="s">
+      <c r="B158" s="8" t="s">
         <v>992</v>
       </c>
-      <c r="C158" s="8">
+      <c r="C158" s="10">
         <f>COUNTA(D158:AI158)</f>
         <v>18</v>
       </c>
@@ -15873,13 +15873,13 @@
       </c>
     </row>
     <row r="160" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A160" s="10" t="s">
+      <c r="A160" s="11" t="s">
         <v>1008</v>
       </c>
-      <c r="B160" s="10" t="s">
+      <c r="B160" s="11" t="s">
         <v>1009</v>
       </c>
-      <c r="C160" s="12">
+      <c r="C160" s="13">
         <f>COUNTA(D160:AI160)</f>
         <v>25</v>
       </c>
@@ -15967,9 +15967,9 @@
       </c>
     </row>
     <row r="161" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A161" s="11"/>
-      <c r="B161" s="11"/>
-      <c r="C161" s="11"/>
+      <c r="A161" s="12"/>
+      <c r="B161" s="12"/>
+      <c r="C161" s="12"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4" t="s">
         <v>1035</v>
@@ -16054,13 +16054,13 @@
       </c>
     </row>
     <row r="162" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A162" s="13" t="s">
+      <c r="A162" s="8" t="s">
         <v>1039</v>
       </c>
-      <c r="B162" s="13" t="s">
+      <c r="B162" s="8" t="s">
         <v>1040</v>
       </c>
-      <c r="C162" s="8">
+      <c r="C162" s="10">
         <f>COUNTA(D162:AI162)</f>
         <v>12</v>
       </c>
@@ -16183,13 +16183,13 @@
       <c r="AI163" s="2"/>
     </row>
     <row r="164" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A164" s="10" t="s">
+      <c r="A164" s="11" t="s">
         <v>1052</v>
       </c>
-      <c r="B164" s="10" t="s">
+      <c r="B164" s="11" t="s">
         <v>1053</v>
       </c>
-      <c r="C164" s="12">
+      <c r="C164" s="13">
         <f>COUNTA(D164:AI164)</f>
         <v>18</v>
       </c>
@@ -16263,9 +16263,9 @@
       </c>
     </row>
     <row r="165" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A165" s="11"/>
-      <c r="B165" s="11"/>
-      <c r="C165" s="11"/>
+      <c r="A165" s="12"/>
+      <c r="B165" s="12"/>
+      <c r="C165" s="12"/>
       <c r="D165" s="4" t="s">
         <v>1060</v>
       </c>
@@ -16336,13 +16336,13 @@
       </c>
     </row>
     <row r="166" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A166" s="13" t="s">
+      <c r="A166" s="8" t="s">
         <v>1065</v>
       </c>
-      <c r="B166" s="13" t="s">
+      <c r="B166" s="8" t="s">
         <v>1066</v>
       </c>
-      <c r="C166" s="8">
+      <c r="C166" s="10">
         <f>COUNTA(D166:AI166)</f>
         <v>19</v>
       </c>
@@ -16493,13 +16493,13 @@
       </c>
     </row>
     <row r="168" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A168" s="10" t="s">
+      <c r="A168" s="11" t="s">
         <v>1081</v>
       </c>
-      <c r="B168" s="10" t="s">
+      <c r="B168" s="11" t="s">
         <v>1082</v>
       </c>
-      <c r="C168" s="12">
+      <c r="C168" s="13">
         <f>COUNTA(D168:AI168)</f>
         <v>19</v>
       </c>
@@ -16575,9 +16575,9 @@
       </c>
     </row>
     <row r="169" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A169" s="11"/>
-      <c r="B169" s="11"/>
-      <c r="C169" s="11"/>
+      <c r="A169" s="12"/>
+      <c r="B169" s="12"/>
+      <c r="C169" s="12"/>
       <c r="D169" s="4" t="s">
         <v>1090</v>
       </c>
@@ -16650,13 +16650,13 @@
       </c>
     </row>
     <row r="170" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A170" s="13" t="s">
+      <c r="A170" s="8" t="s">
         <v>1095</v>
       </c>
-      <c r="B170" s="13" t="s">
+      <c r="B170" s="8" t="s">
         <v>1096</v>
       </c>
-      <c r="C170" s="8">
+      <c r="C170" s="10">
         <f>COUNTA(D170:AI170)</f>
         <v>14</v>
       </c>
@@ -16787,13 +16787,13 @@
       <c r="AI171" s="2"/>
     </row>
     <row r="172" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A172" s="10" t="s">
+      <c r="A172" s="11" t="s">
         <v>1104</v>
       </c>
-      <c r="B172" s="10" t="s">
+      <c r="B172" s="11" t="s">
         <v>1105</v>
       </c>
-      <c r="C172" s="12">
+      <c r="C172" s="13">
         <f>COUNTA(D172:AI172)</f>
         <v>16</v>
       </c>
@@ -16863,9 +16863,9 @@
       </c>
     </row>
     <row r="173" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A173" s="11"/>
-      <c r="B173" s="11"/>
-      <c r="C173" s="11"/>
+      <c r="A173" s="12"/>
+      <c r="B173" s="12"/>
+      <c r="C173" s="12"/>
       <c r="D173" s="4" t="s">
         <v>1114</v>
       </c>
@@ -16932,13 +16932,13 @@
       </c>
     </row>
     <row r="174" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A174" s="13" t="s">
+      <c r="A174" s="8" t="s">
         <v>1121</v>
       </c>
-      <c r="B174" s="13" t="s">
+      <c r="B174" s="8" t="s">
         <v>1122</v>
       </c>
-      <c r="C174" s="8">
+      <c r="C174" s="10">
         <f>COUNTA(D174:AI174)</f>
         <v>19</v>
       </c>
@@ -17089,13 +17089,13 @@
       </c>
     </row>
     <row r="176" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A176" s="10" t="s">
+      <c r="A176" s="11" t="s">
         <v>1135</v>
       </c>
-      <c r="B176" s="10" t="s">
+      <c r="B176" s="11" t="s">
         <v>1136</v>
       </c>
-      <c r="C176" s="12">
+      <c r="C176" s="13">
         <f>COUNTA(D176:AI176)</f>
         <v>20</v>
       </c>
@@ -17173,9 +17173,9 @@
       </c>
     </row>
     <row r="177" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A177" s="11"/>
-      <c r="B177" s="11"/>
-      <c r="C177" s="11"/>
+      <c r="A177" s="12"/>
+      <c r="B177" s="12"/>
+      <c r="C177" s="12"/>
       <c r="D177" s="4" t="s">
         <v>1144</v>
       </c>
@@ -17250,13 +17250,13 @@
       </c>
     </row>
     <row r="178" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A178" s="13" t="s">
+      <c r="A178" s="8" t="s">
         <v>1151</v>
       </c>
-      <c r="B178" s="13" t="s">
+      <c r="B178" s="8" t="s">
         <v>1152</v>
       </c>
-      <c r="C178" s="8">
+      <c r="C178" s="10">
         <f>COUNTA(D178:AI178)</f>
         <v>3</v>
       </c>
@@ -17343,13 +17343,13 @@
       <c r="AI179" s="2"/>
     </row>
     <row r="180" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A180" s="10" t="s">
+      <c r="A180" s="11" t="s">
         <v>1155</v>
       </c>
-      <c r="B180" s="10" t="s">
+      <c r="B180" s="11" t="s">
         <v>1156</v>
       </c>
-      <c r="C180" s="12">
+      <c r="C180" s="13">
         <f>COUNTA(D180:AI180)</f>
         <v>19</v>
       </c>
@@ -17425,9 +17425,9 @@
       </c>
     </row>
     <row r="181" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A181" s="11"/>
-      <c r="B181" s="11"/>
-      <c r="C181" s="11"/>
+      <c r="A181" s="12"/>
+      <c r="B181" s="12"/>
+      <c r="C181" s="12"/>
       <c r="D181" s="4" t="s">
         <v>1164</v>
       </c>
@@ -17500,13 +17500,13 @@
       </c>
     </row>
     <row r="182" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A182" s="13" t="s">
+      <c r="A182" s="8" t="s">
         <v>1169</v>
       </c>
-      <c r="B182" s="13" t="s">
+      <c r="B182" s="8" t="s">
         <v>1170</v>
       </c>
-      <c r="C182" s="8">
+      <c r="C182" s="10">
         <f>COUNTA(D182:AI182)</f>
         <v>16</v>
       </c>
@@ -17645,13 +17645,13 @@
       <c r="AI183" s="2"/>
     </row>
     <row r="184" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A184" s="10" t="s">
+      <c r="A184" s="11" t="s">
         <v>1179</v>
       </c>
-      <c r="B184" s="10" t="s">
+      <c r="B184" s="11" t="s">
         <v>1180</v>
       </c>
-      <c r="C184" s="12">
+      <c r="C184" s="13">
         <f>COUNTA(D184:AI184)</f>
         <v>17</v>
       </c>
@@ -17723,9 +17723,9 @@
       </c>
     </row>
     <row r="185" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A185" s="11"/>
-      <c r="B185" s="11"/>
-      <c r="C185" s="11"/>
+      <c r="A185" s="12"/>
+      <c r="B185" s="12"/>
+      <c r="C185" s="12"/>
       <c r="D185" s="4" t="s">
         <v>1188</v>
       </c>
@@ -17794,13 +17794,13 @@
       </c>
     </row>
     <row r="186" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A186" s="13" t="s">
+      <c r="A186" s="8" t="s">
         <v>1194</v>
       </c>
-      <c r="B186" s="13" t="s">
+      <c r="B186" s="8" t="s">
         <v>1195</v>
       </c>
-      <c r="C186" s="8">
+      <c r="C186" s="10">
         <f>COUNTA(D186:AI186)</f>
         <v>8</v>
       </c>
@@ -17907,13 +17907,13 @@
       <c r="AI187" s="2"/>
     </row>
     <row r="188" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A188" s="10" t="s">
+      <c r="A188" s="11" t="s">
         <v>1199</v>
       </c>
-      <c r="B188" s="10" t="s">
+      <c r="B188" s="11" t="s">
         <v>1200</v>
       </c>
-      <c r="C188" s="12">
+      <c r="C188" s="13">
         <f>COUNTA(D188:AI188)</f>
         <v>17</v>
       </c>
@@ -17985,9 +17985,9 @@
       <c r="AI188" s="4"/>
     </row>
     <row r="189" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A189" s="11"/>
-      <c r="B189" s="11"/>
-      <c r="C189" s="11"/>
+      <c r="A189" s="12"/>
+      <c r="B189" s="12"/>
+      <c r="C189" s="12"/>
       <c r="D189" s="4" t="s">
         <v>1209</v>
       </c>
@@ -18056,13 +18056,13 @@
       <c r="AI189" s="4"/>
     </row>
     <row r="190" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A190" s="13" t="s">
+      <c r="A190" s="8" t="s">
         <v>1211</v>
       </c>
-      <c r="B190" s="13" t="s">
+      <c r="B190" s="8" t="s">
         <v>1212</v>
       </c>
-      <c r="C190" s="8">
+      <c r="C190" s="10">
         <f>COUNTA(D190:AI190)</f>
         <v>3</v>
       </c>
@@ -18149,13 +18149,13 @@
       <c r="AI191" s="2"/>
     </row>
     <row r="192" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A192" s="10" t="s">
+      <c r="A192" s="11" t="s">
         <v>1214</v>
       </c>
-      <c r="B192" s="10" t="s">
+      <c r="B192" s="11" t="s">
         <v>1215</v>
       </c>
-      <c r="C192" s="12">
+      <c r="C192" s="13">
         <f>COUNTA(D192:AI192)</f>
         <v>19</v>
       </c>
@@ -18231,9 +18231,9 @@
       </c>
     </row>
     <row r="193" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A193" s="11"/>
-      <c r="B193" s="11"/>
-      <c r="C193" s="11"/>
+      <c r="A193" s="12"/>
+      <c r="B193" s="12"/>
+      <c r="C193" s="12"/>
       <c r="D193" s="4" t="s">
         <v>256</v>
       </c>
@@ -18306,13 +18306,13 @@
       </c>
     </row>
     <row r="194" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A194" s="13" t="s">
+      <c r="A194" s="8" t="s">
         <v>1228</v>
       </c>
-      <c r="B194" s="13" t="s">
+      <c r="B194" s="8" t="s">
         <v>1229</v>
       </c>
-      <c r="C194" s="8">
+      <c r="C194" s="10">
         <f>COUNTA(D194:AI194)</f>
         <v>18</v>
       </c>
@@ -18459,13 +18459,13 @@
       </c>
     </row>
     <row r="196" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A196" s="10" t="s">
+      <c r="A196" s="11" t="s">
         <v>1244</v>
       </c>
-      <c r="B196" s="10" t="s">
+      <c r="B196" s="11" t="s">
         <v>1245</v>
       </c>
-      <c r="C196" s="12">
+      <c r="C196" s="13">
         <f>COUNTA(D196:AI196)</f>
         <v>19</v>
       </c>
@@ -18541,9 +18541,9 @@
       </c>
     </row>
     <row r="197" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A197" s="11"/>
-      <c r="B197" s="11"/>
-      <c r="C197" s="11"/>
+      <c r="A197" s="12"/>
+      <c r="B197" s="12"/>
+      <c r="C197" s="12"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4" t="s">
         <v>1253</v>
@@ -18617,6 +18617,290 @@
     </row>
   </sheetData>
   <mergeCells count="296">
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="W2:AC2"/>
+    <mergeCell ref="AD2:AI2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="C100:C101"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="B116:B117"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="C118:C119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="C130:C131"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="B132:B133"/>
+    <mergeCell ref="C132:C133"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="C126:C127"/>
+    <mergeCell ref="A128:A129"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="A138:A139"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="C140:C141"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="B134:B135"/>
+    <mergeCell ref="C134:C135"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="A146:A147"/>
+    <mergeCell ref="B146:B147"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="C148:C149"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="B154:B155"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="B156:B157"/>
+    <mergeCell ref="C156:C157"/>
+    <mergeCell ref="A150:A151"/>
+    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="A162:A163"/>
+    <mergeCell ref="B162:B163"/>
+    <mergeCell ref="C162:C163"/>
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="A158:A159"/>
+    <mergeCell ref="B158:B159"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="A160:A161"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="C160:C161"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="B168:B169"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="A178:A179"/>
+    <mergeCell ref="B178:B179"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="B180:B181"/>
+    <mergeCell ref="C180:C181"/>
+    <mergeCell ref="A174:A175"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="C174:C175"/>
+    <mergeCell ref="A176:A177"/>
+    <mergeCell ref="B176:B177"/>
+    <mergeCell ref="C176:C177"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="B186:B187"/>
+    <mergeCell ref="C186:C187"/>
+    <mergeCell ref="A188:A189"/>
+    <mergeCell ref="B188:B189"/>
+    <mergeCell ref="C188:C189"/>
+    <mergeCell ref="A182:A183"/>
+    <mergeCell ref="B182:B183"/>
+    <mergeCell ref="C182:C183"/>
+    <mergeCell ref="A184:A185"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="C184:C185"/>
     <mergeCell ref="A194:A195"/>
     <mergeCell ref="B194:B195"/>
     <mergeCell ref="C194:C195"/>
@@ -18629,290 +18913,6 @@
     <mergeCell ref="A192:A193"/>
     <mergeCell ref="B192:B193"/>
     <mergeCell ref="C192:C193"/>
-    <mergeCell ref="A186:A187"/>
-    <mergeCell ref="B186:B187"/>
-    <mergeCell ref="C186:C187"/>
-    <mergeCell ref="A188:A189"/>
-    <mergeCell ref="B188:B189"/>
-    <mergeCell ref="C188:C189"/>
-    <mergeCell ref="A182:A183"/>
-    <mergeCell ref="B182:B183"/>
-    <mergeCell ref="C182:C183"/>
-    <mergeCell ref="A184:A185"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="C184:C185"/>
-    <mergeCell ref="A178:A179"/>
-    <mergeCell ref="B178:B179"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="A180:A181"/>
-    <mergeCell ref="B180:B181"/>
-    <mergeCell ref="C180:C181"/>
-    <mergeCell ref="A174:A175"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="C174:C175"/>
-    <mergeCell ref="A176:A177"/>
-    <mergeCell ref="B176:B177"/>
-    <mergeCell ref="C176:C177"/>
-    <mergeCell ref="A170:A171"/>
-    <mergeCell ref="B170:B171"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="A172:A173"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="B168:B169"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="A162:A163"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="C162:C163"/>
-    <mergeCell ref="A164:A165"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="A158:A159"/>
-    <mergeCell ref="B158:B159"/>
-    <mergeCell ref="C158:C159"/>
-    <mergeCell ref="A160:A161"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="C160:C161"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="A156:A157"/>
-    <mergeCell ref="B156:B157"/>
-    <mergeCell ref="C156:C157"/>
-    <mergeCell ref="A150:A151"/>
-    <mergeCell ref="B150:B151"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="A152:A153"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="A146:A147"/>
-    <mergeCell ref="B146:B147"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="C148:C149"/>
-    <mergeCell ref="A142:A143"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="B144:B145"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="A138:A139"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="C140:C141"/>
-    <mergeCell ref="A134:A135"/>
-    <mergeCell ref="B134:B135"/>
-    <mergeCell ref="C134:C135"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="A130:A131"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="C130:C131"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="C132:C133"/>
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="C126:C127"/>
-    <mergeCell ref="A128:A129"/>
-    <mergeCell ref="B128:B129"/>
-    <mergeCell ref="C128:C129"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="A124:A125"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="B118:B119"/>
-    <mergeCell ref="C118:C119"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="B120:B121"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="B116:B117"/>
-    <mergeCell ref="C116:C117"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="C106:C107"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="C100:C101"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D2:J2"/>
-    <mergeCell ref="K2:P2"/>
-    <mergeCell ref="Q2:V2"/>
-    <mergeCell ref="W2:AC2"/>
-    <mergeCell ref="AD2:AI2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="40" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -21573,15 +21573,150 @@
     </row>
   </sheetData>
   <mergeCells count="165">
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="C112:C113"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C94:C95"/>
     <mergeCell ref="A104:A105"/>
     <mergeCell ref="B104:B105"/>
     <mergeCell ref="C104:C105"/>
@@ -21594,150 +21729,15 @@
     <mergeCell ref="A102:A103"/>
     <mergeCell ref="B102:B103"/>
     <mergeCell ref="C102:C103"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="C110:C111"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
